--- a/src/test/resources/Magento.xlsx
+++ b/src/test/resources/Magento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANHTESTER\SeleniumJava\AnhTesterFrameworkWithTestNG\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANHTESTER\SeleniumTestNGParallel\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C087050B-DD3F-444E-B6C1-0EEB07E684BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1AEECF-4A60-4DB8-912B-E76F7232D86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>TCID</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>demo1</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
 </sst>
 </file>
@@ -114,7 +114,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -122,13 +122,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -445,66 +445,66 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.69921875" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -526,34 +526,34 @@
       <selection activeCell="A3" sqref="A3:XFD84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -572,30 +572,30 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -612,22 +612,22 @@
       <selection activeCell="A3" sqref="A3:XFD97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -644,22 +644,22 @@
       <selection activeCell="A3" sqref="A3:XFD190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
